--- a/Results/Mitigation_direct/results_df_location_direct.xlsx
+++ b/Results/Mitigation_direct/results_df_location_direct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,130 +436,115 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>distance_km</t>
+          <t>cand_gender</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>match_score</t>
+          <t>cand_age_bucket</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_rank</t>
+          <t>cand_domicile_province</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cand_gender</t>
+          <t>cand_domicile_region</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cand_age_bucket</t>
+          <t>job_contract_type</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cand_domicile_province</t>
+          <t>job_work_province</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cand_domicile_region</t>
+          <t>Svedese</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>job_contract_type</t>
+          <t>Spagnolo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>job_work_province</t>
+          <t>Finlandese</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Ebraico</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Persiano</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Portoghese</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cinese</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Arabo</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Serbo</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Albanese</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Croato</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Ceco</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Danese</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Rumeno</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Macedone</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Tedesco</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Persiano</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Svedese</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Albanese</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Spagnolo</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Croato</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Finlandese</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Arabo</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Danese</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Serbo</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Portoghese</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Ebraico</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Rumeno</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Cinese</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>same_location</t>
         </is>
@@ -567,25 +552,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7859.605473491</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17.7841187600001</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -597,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -627,45 +612,36 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2587.806569277</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.98520659999997</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -680,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -710,48 +686,39 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6467.913466014</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>10.77003479000011</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2249</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2249</v>
+        <v>56</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -763,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -793,51 +760,42 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6169.671333026</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>5.900627090000071</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>611</v>
+        <v>297</v>
       </c>
       <c r="G5" t="n">
-        <v>349</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -846,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -864,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -873,45 +831,36 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6472.513154161999</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>28.11709596999998</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1214</v>
+        <v>1149</v>
       </c>
       <c r="G6" t="n">
-        <v>918</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1149</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -920,72 +869,63 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
         <v>5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15849.094067368</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>60.43774404999989</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3772</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3772</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1033,60 +973,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4502.474936488999</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>8.895141590000023</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="G8" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1101,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1113,48 +1044,39 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22050.899385895</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>126.5591046599998</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2880</v>
+        <v>1195</v>
       </c>
       <c r="G9" t="n">
-        <v>1800</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1195</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1166,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1178,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1193,45 +1115,36 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10099.362573445</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>24.14823166999984</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1825</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1825</v>
+        <v>776</v>
       </c>
       <c r="G10" t="n">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>776</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1240,25 +1153,25 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>4</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1270,42 +1183,33 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5246.018153805999</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>7.922149720000036</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1317,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1341,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1353,15 +1257,6 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Results/Mitigation_direct/results_df_location_direct.xlsx
+++ b/Results/Mitigation_direct/results_df_location_direct.xlsx
@@ -558,10 +558,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1440</v>
+        <v>63.38</v>
       </c>
       <c r="D2" t="n">
-        <v>427</v>
+        <v>32.77</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>231</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -700,16 +700,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2249</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>6.2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>56</v>
+        <v>2.01</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>611</v>
+        <v>79</v>
       </c>
       <c r="D5" t="n">
-        <v>349</v>
+        <v>50.25</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>297</v>
+        <v>24.75</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -842,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1214</v>
+        <v>54.87</v>
       </c>
       <c r="D6" t="n">
-        <v>918</v>
+        <v>64.87</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1149</v>
+        <v>23.16</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0.26</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0.26</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="V6" t="n">
-        <v>5</v>
+        <v>0.66</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3772</v>
+        <v>72.39</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>2.1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>510</v>
+        <v>66.3</v>
       </c>
       <c r="D8" t="n">
-        <v>305</v>
+        <v>44.81</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>360</v>
+        <v>10.74</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>0.74</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1055,25 +1055,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2880</v>
+        <v>53.94</v>
       </c>
       <c r="D9" t="n">
-        <v>1800</v>
+        <v>46.16</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1195</v>
+        <v>28.69</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1825</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>310</v>
+        <v>12.36</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>776</v>
+        <v>18.46</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0.16</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>0.32</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>864</v>
+        <v>57.04</v>
       </c>
       <c r="D11" t="n">
-        <v>354</v>
+        <v>47.04</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
